--- a/file/sale_example.xlsx
+++ b/file/sale_example.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>05-0157/05-0157/</t>
   </si>
@@ -54,16 +54,16 @@
     <t>Категория</t>
   </si>
   <si>
-    <t>Вернули поставщику</t>
-  </si>
-  <si>
-    <t>Вернули клиенты</t>
-  </si>
-  <si>
     <t>Заказано</t>
   </si>
   <si>
     <t>[Удалить шапку]</t>
+  </si>
+  <si>
+    <t>12-0501/12-0501/</t>
+  </si>
+  <si>
+    <t>Остаток</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:I3077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,138 +463,149 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>753</v>
+      </c>
+      <c r="C2">
+        <v>682</v>
+      </c>
+      <c r="D2">
+        <v>8040158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>942</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>450</v>
+      </c>
+      <c r="C3">
+        <v>388</v>
+      </c>
+      <c r="D3">
+        <v>6959431</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>641</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>287</v>
+      </c>
+      <c r="C4">
+        <v>241</v>
+      </c>
+      <c r="D4">
+        <v>7844139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>326</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>285</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>7567649</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>386</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>217</v>
+      </c>
+      <c r="C6">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <v>6959432</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>278</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C7">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>7567670</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>205</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>728</v>
-      </c>
-      <c r="C2" s="1">
-        <v>574</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8040158</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>440</v>
-      </c>
-      <c r="C3" s="1">
-        <v>403</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6959431</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>257</v>
-      </c>
-      <c r="C4" s="1">
-        <v>239</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7844139</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>285</v>
-      </c>
-      <c r="C5" s="1">
-        <v>233</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7567649</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>197</v>
-      </c>
-      <c r="C6" s="1">
-        <v>186</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6959432</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
